--- a/biology/Zoologie/Cryptocreagris_tibialis/Cryptocreagris_tibialis.xlsx
+++ b/biology/Zoologie/Cryptocreagris_tibialis/Cryptocreagris_tibialis.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Cryptocreagris tibialis est une espèce de pseudoscorpions de la famille des Neobisiidae.
 </t>
@@ -511,9 +523,11 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce est endémique du Colorado aux États-Unis[1]. Elle se rencontre dans le comté de Teller vers Florissant.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce est endémique du Colorado aux États-Unis. Elle se rencontre dans le comté de Teller vers Florissant.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'holotype mesure 4,2 mm[2].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'holotype mesure 4,2 mm.
 </t>
         </is>
       </c>
@@ -573,9 +589,11 @@
           <t>Systématique et taxinomie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce a été décrite sous le protonyme Ideobisium tibiale par Banks en 1909. Elle est placée dans le genre Syarinus par Chamberlin en 1930[3], dans le genre Microcreagris par Hoff en 1956[4] puis dans le genre Cryptocreagris par Ćurčić en 1993[5].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce a été décrite sous le protonyme Ideobisium tibiale par Banks en 1909. Elle est placée dans le genre Syarinus par Chamberlin en 1930, dans le genre Microcreagris par Hoff en 1956 puis dans le genre Cryptocreagris par Ćurčić en 1993.
 </t>
         </is>
       </c>
@@ -604,7 +622,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Banks, 1909 : New Pseudoscorpionida. Canadian Entomologist, vol. 41, p. 303-307 (texte intégral).</t>
         </is>
